--- a/IFT.xlsx
+++ b/IFT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,1363 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CYPRINE 100</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2030298</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>cyperméthrine (Cypermethrin) 100.0 g/L</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Vigne*Trt Part.Aer.*Cicadelles (1)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Insecticide</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>non herbicide</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>La fontaine des mignons</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>L/ha</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>02/05/2022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>JALISCO</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2170440</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>hexythiazox (Hexythiazox) 100.0 g/kg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Vigne*Trt Part.Aer.*Acariens</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Acaricide</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>non herbicide</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>La fontaine des mignons</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>kg/ha</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20/04/2022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>VALIS F</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2090065</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>folpel (Folpet) 480.0 g/kg | valifénalate (Valifenalate) 60.0 g/kg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vigne*Trt Part.Aer.*Mildiou(s)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Fongicide</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>non herbicide</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>La fontaine des mignons</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>kg/ha</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20/04/2022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>VALIS F</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2090065</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>folpel (Folpet) 480.0 g/kg | valifénalate (Valifenalate) 60.0 g/kg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vigne*Trt Part.Aer.*Mildiou(s)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Fongicide</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>non herbicide</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Montinette</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>kg/ha</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>22/04/2022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>VALIS F</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2090065</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>folpel (Folpet) 480.0 g/kg | valifénalate (Valifenalate) 60.0 g/kg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vigne*Trt Part.Aer.*Mildiou(s)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Fongicide</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>non herbicide</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Montinette</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>kg/ha</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>13/04/2022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>APACHE EW</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2170335</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>abamectine (Abamectin) 18.0 g/L</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vigne*Trt Part.Aer.*Acariens</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Insecticide | Acaricide</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>non herbicide</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Côte des glands</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>L/ha</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13/04/2022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>OUROUK SC</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2180679</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>oxychlorure de cuivre (Copper compounds) 1177.1 g/L</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vigne*Trt Part.Aer.*Mildiou(s)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Fongicide</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>non herbicide</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Côte des glands</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>L/ha</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>04/04/2022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>OUROUK SC</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2180679</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>oxychlorure de cuivre (Copper compounds) 1177.1 g/L</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vigne*Trt Part.Aer.*Mildiou(s)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Fongicide</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>non herbicide</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>La fontaine des mignons</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>L/ha</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>04/04/2022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>OUROUK SC</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2180679</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>oxychlorure de cuivre (Copper compounds) 1177.1 g/L</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vigne*Trt Part.Aer.*Mildiou(s)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Fongicide</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>non herbicide</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Les Grès Chatons</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>L/ha</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14/03/2022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ROUNDUP EVOLUTION</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2090093</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>glyphosate (Glyphosate) 450.0 g/L</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vigne*Désherbage*Cult. Installées</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Herbicide</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>postlevée</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Les Grès Chatons</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>L/ha</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>07/02/2022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>VITISAN</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2171200</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>hydrogénocarbonate de potassium (Potassium hydrogen carbonate) 994.9 g/kg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vigne*Trt Part.Aer.*Oïdium(s)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Fongicide</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>non herbicide</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Les Grès Chatons</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>kg/ha</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>07/02/2022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>VITISAN</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2171200</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>hydrogénocarbonate de potassium (Potassium hydrogen carbonate) 994.9 g/kg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Vigne*Trt Part.Aer.*Oïdium(s)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Fongicide</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>non herbicide</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>La fontaine des mignons</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>kg/ha</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>07/02/2022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>VITISAN</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2171200</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>hydrogénocarbonate de potassium (Potassium hydrogen carbonate) 994.9 g/kg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Vigne*Trt Part.Aer.*Oïdium(s)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Fongicide</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>non herbicide</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Côte des glands</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>kg/ha</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>07/02/2022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>VITISAN</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2171200</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>hydrogénocarbonate de potassium (Potassium hydrogen carbonate) 994.9 g/kg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Vigne*Trt Part.Aer.*Oïdium(s)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Fongicide</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>non herbicide</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Derrière les murs</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>kg/ha</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>07/02/2022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>VITISAN</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2171200</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>hydrogénocarbonate de potassium (Potassium hydrogen carbonate) 994.9 g/kg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Vigne*Trt Part.Aer.*Oïdium(s)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Fongicide</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>non herbicide</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Montinette</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>kg/ha</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>05/01/2022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ROUNDUP FLASH PLUS</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2090093</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>glyphosate (Glyphosate) 450.0 g/L</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Vigne*Désherbage*Cult. Installées</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Herbicide</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>postlevée</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>La fontaine des mignons</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>L/ha</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ROUNDUP FLASH PLUS</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2090093</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>glyphosate (Glyphosate) 450.0 g/L</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Vigne*Désherbage*Cult. Installées</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Herbicide</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>postlevée</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Les Grès Chatons</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>L/ha</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ROUNDUP FLASH PLUS</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2090093</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>glyphosate (Glyphosate) 450.0 g/L</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Vigne*Désherbage*Cult. Installées</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Herbicide</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>postlevée</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Les Grès Chatons</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>L/ha</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13/05/2022</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>03/05/2022</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ROUNDUP FLASH PLUS</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2090093</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>glyphosate (Glyphosate) 450.0 g/L</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Vigne*Désherbage*Cult. Installées</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Herbicide</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>postlevée</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Une nouvelle parcelle</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>L/ha</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/IFT.xlsx
+++ b/IFT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,85 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>26/03/2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>26/03/2023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ROUNDUP AC</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2170002</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>acide acétique (Acetic acid) 60.0 g/L</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Traitements généraux*Désherbage*Zones Cult. Avt Plantat. (1)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Herbicide</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>postlevée</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>FRANCAIS</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>mL/m²</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
